--- a/Risk Plan.xlsx
+++ b/Risk Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Comp-3000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2281E2A0-E74B-46DD-B9DD-3F0A33F63DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD0104A-C2E0-43C4-82CB-7C10D9A0A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1D5498B-61A6-4288-9EE7-045D75895AD1}"/>
+    <workbookView xWindow="2775" yWindow="0" windowWidth="21600" windowHeight="15765" xr2:uid="{F1D5498B-61A6-4288-9EE7-045D75895AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>Risk Reduction Techniques</t>
-  </si>
-  <si>
     <t>Likelihood</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Gather data from reputable sources, keep sentences simple.</t>
+  </si>
+  <si>
+    <t>Risk Reduction/Mitigation Techniques</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="C2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -568,10 +568,10 @@
     </row>
     <row r="5" spans="3:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="6" spans="3:7" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="7" spans="3:7" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -622,10 +622,10 @@
     </row>
     <row r="8" spans="3:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="9" spans="3:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="10" spans="3:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>7</v>
